--- a/Documents/TestPlan-Warehouse.xlsx
+++ b/Documents/TestPlan-Warehouse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse Siersema\Desktop\Proftaak\ProftaakDDCC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProftaakDDCC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,9 +71,6 @@
     <t>The C# application sends and receives bytes and does stuff with them</t>
   </si>
   <si>
-    <t>the C# application controlls the Warehouse</t>
-  </si>
-  <si>
     <t>Holds on well enough until the drop off point</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>It controls the Warehouse</t>
+  </si>
+  <si>
+    <t>the C# application controls the Warehouse</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -577,7 +577,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -596,10 +596,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
